--- a/poznamky/conconi-test/conconi-elite.xlsx
+++ b/poznamky/conconi-test/conconi-elite.xlsx
@@ -279,11 +279,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2078786472"/>
-        <c:axId val="-2078986536"/>
+        <c:axId val="-2071593512"/>
+        <c:axId val="-2071378504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2078786472"/>
+        <c:axId val="-2071593512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -293,12 +293,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078986536"/>
+        <c:crossAx val="-2071378504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2078986536"/>
+        <c:axId val="-2071378504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -309,14 +309,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078786472"/>
+        <c:crossAx val="-2071593512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -705,8 +704,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2078231656"/>
-        <c:axId val="-2078071640"/>
+        <c:axId val="2041383272"/>
+        <c:axId val="2041381976"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1051,11 +1050,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2078231656"/>
-        <c:axId val="-2078071640"/>
+        <c:axId val="2041383272"/>
+        <c:axId val="2041381976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2078231656"/>
+        <c:axId val="2041383272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60.0"/>
@@ -1067,13 +1066,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078071640"/>
+        <c:crossAx val="2041381976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2078071640"/>
+        <c:axId val="2041381976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="110.0"/>
@@ -1086,7 +1085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078231656"/>
+        <c:crossAx val="2041383272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -35384,7 +35383,7 @@
         <v>124</v>
       </c>
       <c r="F4">
-        <f>$E$1</f>
+        <f t="shared" ref="F4:F51" si="1">$E$1</f>
         <v>164</v>
       </c>
     </row>
@@ -35398,7 +35397,7 @@
         <v>123.2</v>
       </c>
       <c r="F5">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35412,7 +35411,7 @@
         <v>122.24</v>
       </c>
       <c r="F6">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35426,7 +35425,7 @@
         <v>124.08</v>
       </c>
       <c r="F7">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35440,7 +35439,7 @@
         <v>126.48</v>
       </c>
       <c r="F8">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35454,7 +35453,7 @@
         <v>124.76</v>
       </c>
       <c r="F9">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35468,7 +35467,7 @@
         <v>126.2</v>
       </c>
       <c r="F10">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35482,7 +35481,7 @@
         <v>127.84</v>
       </c>
       <c r="F11">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35496,7 +35495,7 @@
         <v>128.12</v>
       </c>
       <c r="F12">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35510,7 +35509,7 @@
         <v>131.88</v>
       </c>
       <c r="F13">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35524,7 +35523,7 @@
         <v>130.52000000000001</v>
       </c>
       <c r="F14">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35538,7 +35537,7 @@
         <v>131.12</v>
       </c>
       <c r="F15">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35552,7 +35551,7 @@
         <v>131.96</v>
       </c>
       <c r="F16">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35566,7 +35565,7 @@
         <v>131</v>
       </c>
       <c r="F17">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35580,7 +35579,7 @@
         <v>132.47999999999999</v>
       </c>
       <c r="F18">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35594,7 +35593,7 @@
         <v>133.08000000000001</v>
       </c>
       <c r="F19">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35608,7 +35607,7 @@
         <v>134.12</v>
       </c>
       <c r="F20">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35622,7 +35621,7 @@
         <v>134.36000000000001</v>
       </c>
       <c r="F21">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35636,7 +35635,7 @@
         <v>133.80000000000001</v>
       </c>
       <c r="F22">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35650,7 +35649,7 @@
         <v>134.63999999999999</v>
       </c>
       <c r="F23">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35664,7 +35663,7 @@
         <v>136.91999999999999</v>
       </c>
       <c r="F24">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35678,7 +35677,7 @@
         <v>138.44</v>
       </c>
       <c r="F25">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35692,7 +35691,7 @@
         <v>142.4</v>
       </c>
       <c r="F26">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35706,7 +35705,7 @@
         <v>140.91999999999999</v>
       </c>
       <c r="F27">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35720,7 +35719,7 @@
         <v>142.80000000000001</v>
       </c>
       <c r="F28">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35734,7 +35733,7 @@
         <v>145.72</v>
       </c>
       <c r="F29">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35748,7 +35747,7 @@
         <v>149.47999999999999</v>
       </c>
       <c r="F30">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35762,7 +35761,7 @@
         <v>149.24</v>
       </c>
       <c r="F31">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35776,7 +35775,7 @@
         <v>149.68</v>
       </c>
       <c r="F32">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35790,7 +35789,7 @@
         <v>151.16</v>
       </c>
       <c r="F33">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35804,7 +35803,7 @@
         <v>152.56</v>
       </c>
       <c r="F34">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35818,7 +35817,7 @@
         <v>153.80000000000001</v>
       </c>
       <c r="F35">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35832,7 +35831,7 @@
         <v>154.08000000000001</v>
       </c>
       <c r="F36">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35846,7 +35845,7 @@
         <v>156.44</v>
       </c>
       <c r="F37">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35860,7 +35859,7 @@
         <v>158.47999999999999</v>
       </c>
       <c r="F38">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35874,7 +35873,7 @@
         <v>161</v>
       </c>
       <c r="F39">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35888,7 +35887,7 @@
         <v>162.6</v>
       </c>
       <c r="F40">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35902,7 +35901,7 @@
         <v>163.80000000000001</v>
       </c>
       <c r="F41">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35916,7 +35915,7 @@
         <v>163.6</v>
       </c>
       <c r="F42">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35930,7 +35929,7 @@
         <v>165.12</v>
       </c>
       <c r="F43">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35944,7 +35943,7 @@
         <v>166.92</v>
       </c>
       <c r="F44">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35958,7 +35957,7 @@
         <v>168.64</v>
       </c>
       <c r="F45">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35972,7 +35971,7 @@
         <v>170.96</v>
       </c>
       <c r="F46">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -35986,7 +35985,7 @@
         <v>172.92</v>
       </c>
       <c r="F47">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -36000,7 +35999,7 @@
         <v>174.48</v>
       </c>
       <c r="F48">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -36014,7 +36013,7 @@
         <v>177.24</v>
       </c>
       <c r="F49">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -36028,7 +36027,7 @@
         <v>178.56</v>
       </c>
       <c r="F50">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -36042,7 +36041,7 @@
         <v>179</v>
       </c>
       <c r="F51">
-        <f>$E$1</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
